--- a/Output_testing/R1_201907/Country/HKD/MN/SWITZERLAND_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/SWITZERLAND_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3148.517504</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>12.52471937232395</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>4405.663645</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>17.09576442582853</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>5285.959511</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>18.50654632464776</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>6786.563871</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>28.81998528862842</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>126.0998916511464</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>4564.079077</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>18.15578587697136</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>6653.884681</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>25.81977522321844</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>6049.097068</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>21.1783489597813</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>6319.873412</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>26.8381263658535</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>60.05140948166541</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>11142.220542</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>44.32345867405834</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>8465.080566000001</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>32.84795092476818</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>9413.416241999999</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>32.95708629497383</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>5350.872655</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>22.72314445567886</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0.3611133375661657</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>304.802748</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.212497271418433</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>156.299534</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.6065056773372398</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>881.883304</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.087540527778633</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1205.812292</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.120631467830964</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>65.09282249320856</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>996.625454</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.96454970150452</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1124.892551</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.365040004379479</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1594.819843</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.583585580352541</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>971.505768</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.12561975010957</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>34.18771982026256</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>128.590229</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5115285305550181</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>131.827329</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.5115435818682873</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>463.830531</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.623905970311446</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>367.943921</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.562519500563949</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>101.8339967351666</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>332.667486</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.32334246233446</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>338.861058</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.314918542914553</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>379.50387</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.328671915840958</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>212.850603</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.9038964877865051</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-0.8788322807907423</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>GLASS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>179.78738</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.7151894433887093</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>145.515113</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5646577434637136</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>239.539655</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.8386465527445927</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>210.291339</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.8930282557574963</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>26.63897653330089</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF PRECIOUS METALS; WASTE, SCRAP AND SWEEPINGS OF PRECIOUS METALS (OTHER THAN OF GOLD)</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>78.84253200000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.3136335074043378</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>59.502366</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.2308933486263519</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>54.509825</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.1908430436161437</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>182.101076</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.7733148071868203</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>832.2916848520495</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>171.18769</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.6809801039767025</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>265.36766</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.029734307280138</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>300.719855</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.052843086617971</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>171.30417</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.7274644066015749</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-1.359096335883669</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>4091.106898</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.27431505606416</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>4023.603588</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.61321622031508</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>3899.367363</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>13.65198174333483</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1768.997948</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.512269214002343</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-24.59942480495802</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,485 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>459.718653</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>71.15878965899644</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1198.798226</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>84.34474534318959</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>904.5568929999999</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>82.72417899683313</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>1321.362706</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>87.56596586745469</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>73.87742276847339</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF PRECIOUS METALS; WASTE, SCRAP AND SWEEPINGS OF PRECIOUS METALS (OTHER THAN OF GOLD)</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>78.84253200000001</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>12.20385362690666</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>59.502366</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>4.186452564526286</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>54.509825</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.985071204787171</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>180.420076</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>11.95633730623814</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>823.6855724848918</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>58.072259</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.988870989326081</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>14.207573</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.9996128628153109</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>10.732342</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.981501757969833</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.186601</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.07863538314837804</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-84.41826509753415</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.05977807825336701</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.848233</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.0596797649721328</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.198465</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.1096028718023816</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>1.124072</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.07449162136755623</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>11.80957780662359</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>1.119918</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.07421633811598442</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>738.839620097672</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>3.385693</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.5240636081758829</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>3.160867</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2223914887397336</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>3.225281</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2949606871870745</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>0.771261</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.05111103415756534</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-74.73111339433383</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>3.145739</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.4869216821252233</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>6.20079</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.4362736298181648</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>2.144945</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.1961610325359184</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>0.563152</v>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-71.75267236376349</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>0.777309</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1203178667432598</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.960297</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.06756433581745135</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.217269</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.1113225485567065</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-62.50168949945763</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>COPPER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>20.95107813777324</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>183.9340712476217</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>41.253084</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>6.385469695398485</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>137.151765</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>9.649689531901245</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>114.881554</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>10.50622941472665</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>1.446053</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.09582912175858735</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.26308145706462</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1778,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3131.74628</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>12.78661407352017</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>4398.898952</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>18.06589398923571</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>5283.622359</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>19.23472507021168</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>6786.488987</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>30.79291359843756</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>126.2544625856344</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>11084.148283</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>45.25549446118997</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>8450.872993000001</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>34.70699765417869</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>9402.6839</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>34.2299330743304</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5349.686054</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>24.27358546593754</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.4823798096025955</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4104.360424</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>16.75770259406762</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5455.086455</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>22.40356386302953</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5144.540175</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>18.72840433234749</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4998.510706</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>22.68016769577985</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>56.75637171451149</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>301.657009</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.231636094305635</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>150.098744</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.6164424385762589</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>879.7383589999999</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.20263719080158</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1205.24914</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.468679416367434</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>65.46737638897898</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>996.625454</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.069124353248959</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1124.892551</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.619835508248548</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1594.819843</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.805850443563685</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>971.505768</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.408095737238058</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>34.18771982026256</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>128.590229</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5250213410802175</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>131.827329</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.5414033321941373</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>463.830531</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.688548525380198</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>367.943921</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.669503242416937</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>101.8339967351666</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>332.255737</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.356567711076524</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>338.75164</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.391223413790238</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>379.50387</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.381562137970988</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>212.850603</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.9657851416409193</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-0.8788322807907423</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>GLASS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>179.78738</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.73405430638823</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>145.515113</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5976178661922706</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>239.539655</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.8720304166875368</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>210.291339</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9541727754559078</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>26.63897653330089</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>171.18769</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6989426123521759</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>265.36766</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.089841814063918</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>300.719855</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.094753436385577</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>171.30417</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.7772729781138094</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-1.359096335883669</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>284.279804</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.160686664132944</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>232.630913</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.955394851924554</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>295.299877</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.075022316401384</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>168.330073</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.7637783548808236</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>25.29024891863614</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>3777.743055</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>15.42415578863755</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>3655.2482</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.01178526856614</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>3484.887331</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>12.68653305591948</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1596.965109</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>7.246045593731163</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-24.84612164866882</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2236,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>22478.580316</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>40.52751798662475</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>22474.773439</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>39.80260840700581</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>27295.802907</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>39.1258536880876</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>15013.974367</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>35.20490850088675</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-9.592532988414638</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>10679.070016</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>19.25371602964648</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>12346.061215</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>21.8647561117053</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>13677.947219</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>19.60599449913</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9209.643642000001</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>21.59485915035353</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>15.79522068990955</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3361.043304</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.05975737977227</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>4296.526595</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.609107430391972</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>5770.828395</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>8.271915950269701</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5704.19574</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.37525189461035</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>40.99247444727499</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>1995.626692</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.597993979942343</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2371.633807</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.200140747182434</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3628.692585</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.201374571888807</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>2316.481756</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.431708238639319</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>6.553318115225504</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>5252.083572</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>9.469188375743613</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3438.943658</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.0903362663317</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>4024.486947</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>5.76870693250644</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1840.828446</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.316391877536468</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-33.15226621814505</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1394.403209</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.514024477476915</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1886.617179</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.341180946427737</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2871.542393</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.116074105255443</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1674.260094</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.925820836986916</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>4.08516791979574</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1480.241725</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.668786119548189</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1507.158725</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.669163660367751</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1794.302407</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.571956343898633</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1109.727359</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.602099163056717</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>10.66846579085008</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1193.603636</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.151995016894318</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>733.767533</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.299495269976488</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2058.07799</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.950052745829398</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>799.79346</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.875363237651092</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-42.21719068889387</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>636.259249</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.147136865207171</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>725.192097</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.284308254990386</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>893.897441</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.281314222845327</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>569.4959</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.335359349966456</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>14.7383443533406</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>270.72985</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.4881095118618977</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>427.307132</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.7567568363115609</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>641.940663</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.9201589175649724</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>376.776948</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.8834701362443962</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>4.567834952620098</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6723.339838</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>12.12177425728205</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>6257.597984</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.08214606930886</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>7106.589268</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>10.18659802272368</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4032.211548</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>9.454767614068013</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-2.115454032018649</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
